--- a/frontend/public/documents/plantillas/excel/Plantilla_Lista_Titulados.xlsx
+++ b/frontend/public/documents/plantillas/excel/Plantilla_Lista_Titulados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\ServicioSocial\Indices\frontend\public\documents\plantillas\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62398F49-CEAC-454F-BC8D-CAEA44659946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202960B4-72FC-4648-A238-9A218C6B4138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DECE2751-CE60-4259-B39F-59FA93E45E88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DECE2751-CE60-4259-B39F-59FA93E45E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
-    <t>Control</t>
+    <t>NO_CONTROL</t>
   </si>
   <si>
-    <t>Periodo de titulacion</t>
+    <t>PERIODO</t>
   </si>
   <si>
-    <t>Tipo de titulacion</t>
+    <t>RESIDENCIA</t>
+  </si>
+  <si>
+    <t>(CAMBIAR EL TITULO DE LA COLUMNA PERIODO POR EL NUMERO DE PERIODO CORRESPONDIENTE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS OPCIONES PARA TITULACION SON : </t>
+  </si>
+  <si>
+    <t>TESIS</t>
+  </si>
+  <si>
+    <t>DUAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +75,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF79B8FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -126,29 +152,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
+    <cellStyle name="40% - Énfasis3" xfId="1" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF1B396A"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -158,11 +206,13 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF1B396A"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -183,19 +233,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{754812D3-E91A-44E3-9B15-DD25D930437F}" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:C1048576" xr:uid="{754812D3-E91A-44E3-9B15-DD25D930437F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{23186259-7ED1-471A-92CF-B03BBEB8E131}" name="Control"/>
-    <tableColumn id="2" xr3:uid="{C70B0ACD-0918-4DAE-88D0-108C27A3B742}" name="Periodo de titulacion"/>
-    <tableColumn id="3" xr3:uid="{80B2E446-3953-44D5-BA06-547F9A21AA43}" name="Tipo de titulacion"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{754812D3-E91A-44E3-9B15-DD25D930437F}" name="Table1" displayName="Table1" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:B1048576" xr:uid="{754812D3-E91A-44E3-9B15-DD25D930437F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{23186259-7ED1-471A-92CF-B03BBEB8E131}" name="NO_CONTROL"/>
+    <tableColumn id="2" xr3:uid="{C70B0ACD-0918-4DAE-88D0-108C27A3B742}" name="PERIODO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,515 +540,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983BBCAC-1F72-4C84-99E2-5DD92B7D3960}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>23490001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="D11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="D12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="B96" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <mergeCells count="5">
+    <mergeCell ref="D6:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+  </mergeCells>
+  <dataValidations count="1">
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{99E49400-5CC3-49E5-8330-A89E5975C2E1}">
       <formula1>12</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{F142AF9F-EE73-4869-A902-89410EFB7CCC}">
-      <formula1>5</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{DA21F42A-AAD5-4FF7-B9A5-9ED6D5529DC3}">
-      <formula1>6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
